--- a/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Cxcl10-Sdc4.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Cxcl10-Sdc4.xlsx
@@ -540,16 +540,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>6.643695666666666</v>
+        <v>31.35623066666667</v>
       </c>
       <c r="H2">
-        <v>19.931087</v>
+        <v>94.068692</v>
       </c>
       <c r="I2">
-        <v>0.02330062621916135</v>
+        <v>0.07215642027787079</v>
       </c>
       <c r="J2">
-        <v>0.0235018519445706</v>
+        <v>0.07299614919666826</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -558,28 +558,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>2.118096666666667</v>
+        <v>1.378421333333333</v>
       </c>
       <c r="N2">
-        <v>6.35429</v>
+        <v>4.135264</v>
       </c>
       <c r="O2">
-        <v>0.01939632514349435</v>
+        <v>0.01656231489052403</v>
       </c>
       <c r="P2">
-        <v>0.02251552750188864</v>
+        <v>0.01794267551419991</v>
       </c>
       <c r="Q2">
-        <v>14.07198964591444</v>
+        <v>43.22209728385423</v>
       </c>
       <c r="R2">
-        <v>126.64790681323</v>
+        <v>388.998875554688</v>
       </c>
       <c r="S2">
-        <v>0.0004519465221938831</v>
+        <v>0.00119507735401509</v>
       </c>
       <c r="T2">
-        <v>0.0005291565938032943</v>
+        <v>0.001309746218821943</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -602,16 +602,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>6.643695666666666</v>
+        <v>31.35623066666667</v>
       </c>
       <c r="H3">
-        <v>19.931087</v>
+        <v>94.068692</v>
       </c>
       <c r="I3">
-        <v>0.02330062621916135</v>
+        <v>0.07215642027787079</v>
       </c>
       <c r="J3">
-        <v>0.0235018519445706</v>
+        <v>0.07299614919666826</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -626,22 +626,22 @@
         <v>54.20365200000001</v>
       </c>
       <c r="O3">
-        <v>0.1654554101491777</v>
+        <v>0.2170932623988173</v>
       </c>
       <c r="P3">
-        <v>0.1920629712066653</v>
+        <v>0.2351865659654651</v>
       </c>
       <c r="Q3">
-        <v>120.037522636636</v>
+        <v>566.540738362576</v>
       </c>
       <c r="R3">
-        <v>1080.337703729724</v>
+        <v>5098.866645263184</v>
       </c>
       <c r="S3">
-        <v>0.003855214667824025</v>
+        <v>0.01566467268114314</v>
       </c>
       <c r="T3">
-        <v>0.004513835513333374</v>
+        <v>0.01716771365826715</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -664,16 +664,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>6.643695666666666</v>
+        <v>31.35623066666667</v>
       </c>
       <c r="H4">
-        <v>19.931087</v>
+        <v>94.068692</v>
       </c>
       <c r="I4">
-        <v>0.02330062621916135</v>
+        <v>0.07215642027787079</v>
       </c>
       <c r="J4">
-        <v>0.0235018519445706</v>
+        <v>0.07299614919666826</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -682,28 +682,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>21.713181</v>
+        <v>17.58286933333333</v>
       </c>
       <c r="N4">
-        <v>65.139543</v>
+        <v>52.748608</v>
       </c>
       <c r="O4">
-        <v>0.198836967737801</v>
+        <v>0.2112656061941426</v>
       </c>
       <c r="P4">
-        <v>0.2308127535691568</v>
+        <v>0.22887321273073</v>
       </c>
       <c r="Q4">
-        <v>144.255766519249</v>
+        <v>551.3325065978595</v>
       </c>
       <c r="R4">
-        <v>1298.301898673241</v>
+        <v>4961.992559380736</v>
       </c>
       <c r="S4">
-        <v>0.004633025863809946</v>
+        <v>0.0152441698708037</v>
       </c>
       <c r="T4">
-        <v>0.005424527161300983</v>
+        <v>0.01670686318361316</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,16 +726,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>6.643695666666666</v>
+        <v>31.35623066666667</v>
       </c>
       <c r="H5">
-        <v>19.931087</v>
+        <v>94.068692</v>
       </c>
       <c r="I5">
-        <v>0.02330062621916135</v>
+        <v>0.07215642027787079</v>
       </c>
       <c r="J5">
-        <v>0.0235018519445706</v>
+        <v>0.07299614919666826</v>
       </c>
       <c r="K5">
         <v>2</v>
@@ -744,28 +744,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>45.38465100000001</v>
+        <v>19.2082395</v>
       </c>
       <c r="N5">
-        <v>90.76930200000001</v>
+        <v>38.416479</v>
       </c>
       <c r="O5">
-        <v>0.4156068328578093</v>
+        <v>0.2307951156866419</v>
       </c>
       <c r="P5">
-        <v>0.3216281780510861</v>
+        <v>0.1666869194070983</v>
       </c>
       <c r="Q5">
-        <v>301.521809181879</v>
+        <v>602.297988462578</v>
       </c>
       <c r="R5">
-        <v>1809.130855091274</v>
+        <v>3613.787930775468</v>
       </c>
       <c r="S5">
-        <v>0.009683899466549281</v>
+        <v>0.01665334936556515</v>
       </c>
       <c r="T5">
-        <v>0.007558857821758616</v>
+        <v>0.01216750323817357</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,16 +788,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>6.643695666666666</v>
+        <v>31.35623066666667</v>
       </c>
       <c r="H6">
-        <v>19.931087</v>
+        <v>94.068692</v>
       </c>
       <c r="I6">
-        <v>0.02330062621916135</v>
+        <v>0.07215642027787079</v>
       </c>
       <c r="J6">
-        <v>0.0235018519445706</v>
+        <v>0.07299614919666826</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,28 +806,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>21.91711333333333</v>
+        <v>26.988955</v>
       </c>
       <c r="N6">
-        <v>65.75134</v>
+        <v>80.966865</v>
       </c>
       <c r="O6">
-        <v>0.2007044641117176</v>
+        <v>0.3242837008298742</v>
       </c>
       <c r="P6">
-        <v>0.2329805696712033</v>
+        <v>0.3513106263825066</v>
       </c>
       <c r="Q6">
-        <v>145.6106308785089</v>
+        <v>846.2718984322867</v>
       </c>
       <c r="R6">
-        <v>1310.49567790658</v>
+        <v>7616.44708589058</v>
       </c>
       <c r="S6">
-        <v>0.004676539698784216</v>
+        <v>0.02339915100634372</v>
       </c>
       <c r="T6">
-        <v>0.005475474854374335</v>
+        <v>0.02564432289779243</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -856,10 +856,10 @@
         <v>419.995132</v>
       </c>
       <c r="I7">
-        <v>0.490999290936783</v>
+        <v>0.3221618650682612</v>
       </c>
       <c r="J7">
-        <v>0.4952395927881096</v>
+        <v>0.3259110620709639</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,28 +868,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>2.118096666666667</v>
+        <v>1.378421333333333</v>
       </c>
       <c r="N7">
-        <v>6.35429</v>
+        <v>4.135264</v>
       </c>
       <c r="O7">
-        <v>0.01939632514349435</v>
+        <v>0.01656231489052403</v>
       </c>
       <c r="P7">
-        <v>0.02251552750188864</v>
+        <v>0.01794267551419991</v>
       </c>
       <c r="Q7">
-        <v>296.5300963684756</v>
+        <v>192.9767499483165</v>
       </c>
       <c r="R7">
-        <v>2668.77086731628</v>
+        <v>1736.790749534848</v>
       </c>
       <c r="S7">
-        <v>0.009523581892235023</v>
+        <v>0.005335746254979057</v>
       </c>
       <c r="T7">
-        <v>0.01115058067144481</v>
+        <v>0.005847716433227572</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -918,10 +918,10 @@
         <v>419.995132</v>
       </c>
       <c r="I8">
-        <v>0.490999290936783</v>
+        <v>0.3221618650682612</v>
       </c>
       <c r="J8">
-        <v>0.4952395927881096</v>
+        <v>0.3259110620709639</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -936,10 +936,10 @@
         <v>54.20365200000001</v>
       </c>
       <c r="O8">
-        <v>0.1654554101491777</v>
+        <v>0.2170932623988173</v>
       </c>
       <c r="P8">
-        <v>0.1920629712066653</v>
+        <v>0.2351865659654651</v>
       </c>
       <c r="Q8">
         <v>2529.474441846896</v>
@@ -948,10 +948,10 @@
         <v>22765.26997662207</v>
       </c>
       <c r="S8">
-        <v>0.08123848906490086</v>
+        <v>0.0699391703081564</v>
       </c>
       <c r="T8">
-        <v>0.09511718765006334</v>
+        <v>0.07664990349862755</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -980,10 +980,10 @@
         <v>419.995132</v>
       </c>
       <c r="I9">
-        <v>0.490999290936783</v>
+        <v>0.3221618650682612</v>
       </c>
       <c r="J9">
-        <v>0.4952395927881096</v>
+        <v>0.3259110620709639</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,28 +992,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>21.713181</v>
+        <v>17.58286933333333</v>
       </c>
       <c r="N9">
-        <v>65.139543</v>
+        <v>52.748608</v>
       </c>
       <c r="O9">
-        <v>0.198836967737801</v>
+        <v>0.2112656061941426</v>
       </c>
       <c r="P9">
-        <v>0.2308127535691568</v>
+        <v>0.22887321273073</v>
       </c>
       <c r="Q9">
-        <v>3039.810106744964</v>
+        <v>2461.573175530695</v>
       </c>
       <c r="R9">
-        <v>27358.29096070468</v>
+        <v>22154.15857977626</v>
       </c>
       <c r="S9">
-        <v>0.09762881017128032</v>
+        <v>0.06806172171628178</v>
       </c>
       <c r="T9">
-        <v>0.1143076140878915</v>
+        <v>0.07459231184066588</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1042,10 +1042,10 @@
         <v>419.995132</v>
       </c>
       <c r="I10">
-        <v>0.490999290936783</v>
+        <v>0.3221618650682612</v>
       </c>
       <c r="J10">
-        <v>0.4952395927881096</v>
+        <v>0.3259110620709639</v>
       </c>
       <c r="K10">
         <v>2</v>
@@ -1054,28 +1054,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>45.38465100000001</v>
+        <v>19.2082395</v>
       </c>
       <c r="N10">
-        <v>90.76930200000001</v>
+        <v>38.416479</v>
       </c>
       <c r="O10">
-        <v>0.4156068328578093</v>
+        <v>0.2307951156866419</v>
       </c>
       <c r="P10">
-        <v>0.3216281780510861</v>
+        <v>0.1666869194070983</v>
       </c>
       <c r="Q10">
-        <v>6353.777495839645</v>
+        <v>2689.122361430038</v>
       </c>
       <c r="R10">
-        <v>38122.66497503787</v>
+        <v>16134.73416858023</v>
       </c>
       <c r="S10">
-        <v>0.2040626602416665</v>
+        <v>0.07435338491825366</v>
       </c>
       <c r="T10">
-        <v>0.1592830079272015</v>
+        <v>0.05432511093730458</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1104,10 +1104,10 @@
         <v>419.995132</v>
       </c>
       <c r="I11">
-        <v>0.490999290936783</v>
+        <v>0.3221618650682612</v>
       </c>
       <c r="J11">
-        <v>0.4952395927881096</v>
+        <v>0.3259110620709639</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1116,28 +1116,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>21.91711333333333</v>
+        <v>26.988955</v>
       </c>
       <c r="N11">
-        <v>65.75134</v>
+        <v>80.966865</v>
       </c>
       <c r="O11">
-        <v>0.2007044641117176</v>
+        <v>0.3242837008298742</v>
       </c>
       <c r="P11">
-        <v>0.2329805696712033</v>
+        <v>0.3513106263825066</v>
       </c>
       <c r="Q11">
-        <v>3068.360302497431</v>
+        <v>3778.409905922354</v>
       </c>
       <c r="R11">
-        <v>27615.24272247688</v>
+        <v>34005.68915330118</v>
       </c>
       <c r="S11">
-        <v>0.09854574956670036</v>
+        <v>0.1044718418705903</v>
       </c>
       <c r="T11">
-        <v>0.1153812024515085</v>
+        <v>0.1144960193611383</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1160,16 +1160,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>92.13145400000001</v>
+        <v>130.001713</v>
       </c>
       <c r="H12">
-        <v>276.394362</v>
+        <v>390.005139</v>
       </c>
       <c r="I12">
-        <v>0.3231214493241425</v>
+        <v>0.2991577125385502</v>
       </c>
       <c r="J12">
-        <v>0.3259119472027818</v>
+        <v>0.3026391959814998</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1178,28 +1178,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>2.118096666666667</v>
+        <v>1.378421333333333</v>
       </c>
       <c r="N12">
-        <v>6.35429</v>
+        <v>4.135264</v>
       </c>
       <c r="O12">
-        <v>0.01939632514349435</v>
+        <v>0.01656231489052403</v>
       </c>
       <c r="P12">
-        <v>0.02251552750188864</v>
+        <v>0.01794267551419991</v>
       </c>
       <c r="Q12">
-        <v>195.1433256125534</v>
+        <v>179.1971345690773</v>
       </c>
       <c r="R12">
-        <v>1756.28993051298</v>
+        <v>1612.774211121696</v>
       </c>
       <c r="S12">
-        <v>0.006267368691928202</v>
+        <v>0.004954744236992338</v>
       </c>
       <c r="T12">
-        <v>0.007338079410438311</v>
+        <v>0.005430156891374405</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1222,16 +1222,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>92.13145400000001</v>
+        <v>130.001713</v>
       </c>
       <c r="H13">
-        <v>276.394362</v>
+        <v>390.005139</v>
       </c>
       <c r="I13">
-        <v>0.3231214493241425</v>
+        <v>0.2991577125385502</v>
       </c>
       <c r="J13">
-        <v>0.3259119472027818</v>
+        <v>0.3026391959814998</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1246,22 +1246,22 @@
         <v>54.20365200000001</v>
       </c>
       <c r="O13">
-        <v>0.1654554101491777</v>
+        <v>0.2170932623988173</v>
       </c>
       <c r="P13">
-        <v>0.1920629712066653</v>
+        <v>0.2351865659654651</v>
       </c>
       <c r="Q13">
-        <v>1664.620423623336</v>
+        <v>2348.855870285292</v>
       </c>
       <c r="R13">
-        <v>14981.58381261003</v>
+        <v>21139.70283256763</v>
       </c>
       <c r="S13">
-        <v>0.05346219192592273</v>
+        <v>0.06494512378676143</v>
       </c>
       <c r="T13">
-        <v>0.06259561693151609</v>
+        <v>0.07117667322943834</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1284,16 +1284,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>92.13145400000001</v>
+        <v>130.001713</v>
       </c>
       <c r="H14">
-        <v>276.394362</v>
+        <v>390.005139</v>
       </c>
       <c r="I14">
-        <v>0.3231214493241425</v>
+        <v>0.2991577125385502</v>
       </c>
       <c r="J14">
-        <v>0.3259119472027818</v>
+        <v>0.3026391959814998</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1302,28 +1302,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>21.713181</v>
+        <v>17.58286933333333</v>
       </c>
       <c r="N14">
-        <v>65.139543</v>
+        <v>52.748608</v>
       </c>
       <c r="O14">
-        <v>0.198836967737801</v>
+        <v>0.2112656061941426</v>
       </c>
       <c r="P14">
-        <v>0.2308127535691568</v>
+        <v>0.22887321273073</v>
       </c>
       <c r="Q14">
-        <v>2000.466936495174</v>
+        <v>2285.803132788501</v>
       </c>
       <c r="R14">
-        <v>18004.20242845657</v>
+        <v>20572.22819509651</v>
       </c>
       <c r="S14">
-        <v>0.06424848919465603</v>
+        <v>0.06320173548710986</v>
       </c>
       <c r="T14">
-        <v>0.07522463395495972</v>
+        <v>0.0692660050825309</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1346,16 +1346,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>92.13145400000001</v>
+        <v>130.001713</v>
       </c>
       <c r="H15">
-        <v>276.394362</v>
+        <v>390.005139</v>
       </c>
       <c r="I15">
-        <v>0.3231214493241425</v>
+        <v>0.2991577125385502</v>
       </c>
       <c r="J15">
-        <v>0.3259119472027818</v>
+        <v>0.3026391959814998</v>
       </c>
       <c r="K15">
         <v>2</v>
@@ -1364,28 +1364,28 @@
         <v>1</v>
       </c>
       <c r="M15">
-        <v>45.38465100000001</v>
+        <v>19.2082395</v>
       </c>
       <c r="N15">
-        <v>90.76930200000001</v>
+        <v>38.416479</v>
       </c>
       <c r="O15">
-        <v>0.4156068328578093</v>
+        <v>0.2307951156866419</v>
       </c>
       <c r="P15">
-        <v>0.3216281780510861</v>
+        <v>0.1666869194070983</v>
       </c>
       <c r="Q15">
-        <v>4181.353885912555</v>
+        <v>2497.104038714263</v>
       </c>
       <c r="R15">
-        <v>25088.12331547533</v>
+        <v>14982.62423228558</v>
       </c>
       <c r="S15">
-        <v>0.134291482182032</v>
+        <v>0.06904413887388586</v>
       </c>
       <c r="T15">
-        <v>0.1048224657839125</v>
+        <v>0.0504459952699973</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1408,16 +1408,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>92.13145400000001</v>
+        <v>130.001713</v>
       </c>
       <c r="H16">
-        <v>276.394362</v>
+        <v>390.005139</v>
       </c>
       <c r="I16">
-        <v>0.3231214493241425</v>
+        <v>0.2991577125385502</v>
       </c>
       <c r="J16">
-        <v>0.3259119472027818</v>
+        <v>0.3026391959814998</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1426,28 +1426,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>21.91711333333333</v>
+        <v>26.988955</v>
       </c>
       <c r="N16">
-        <v>65.75134</v>
+        <v>80.966865</v>
       </c>
       <c r="O16">
-        <v>0.2007044641117176</v>
+        <v>0.3242837008298742</v>
       </c>
       <c r="P16">
-        <v>0.2329805696712033</v>
+        <v>0.3513106263825066</v>
       </c>
       <c r="Q16">
-        <v>2019.255518882787</v>
+        <v>3508.610382079915</v>
       </c>
       <c r="R16">
-        <v>18173.29966994508</v>
+        <v>31577.49343871923</v>
       </c>
       <c r="S16">
-        <v>0.06485191732960353</v>
+        <v>0.09701197015380073</v>
       </c>
       <c r="T16">
-        <v>0.07593115112195524</v>
+        <v>0.1063203655081589</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1470,16 +1470,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>7.323940500000001</v>
+        <v>14.997169</v>
       </c>
       <c r="H17">
-        <v>14.647881</v>
+        <v>29.994338</v>
       </c>
       <c r="I17">
-        <v>0.02568636623409617</v>
+        <v>0.03451122811430998</v>
       </c>
       <c r="J17">
-        <v>0.01727213024375885</v>
+        <v>0.02327523775607825</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1488,28 +1488,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>2.118096666666667</v>
+        <v>1.378421333333333</v>
       </c>
       <c r="N17">
-        <v>6.35429</v>
+        <v>4.135264</v>
       </c>
       <c r="O17">
-        <v>0.01939632514349435</v>
+        <v>0.01656231489052403</v>
       </c>
       <c r="P17">
-        <v>0.02251552750188864</v>
+        <v>0.01794267551419991</v>
       </c>
       <c r="Q17">
-        <v>15.512813959915</v>
+        <v>20.67241768920534</v>
       </c>
       <c r="R17">
-        <v>93.07688375949</v>
+        <v>124.034506135232</v>
       </c>
       <c r="S17">
-        <v>0.0004982211112314039</v>
+        <v>0.0005715858272879077</v>
       </c>
       <c r="T17">
-        <v>0.0003888911235195548</v>
+        <v>0.0004176200385731666</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1532,16 +1532,16 @@
         <v>1</v>
       </c>
       <c r="G18">
-        <v>7.323940500000001</v>
+        <v>14.997169</v>
       </c>
       <c r="H18">
-        <v>14.647881</v>
+        <v>29.994338</v>
       </c>
       <c r="I18">
-        <v>0.02568636623409617</v>
+        <v>0.03451122811430998</v>
       </c>
       <c r="J18">
-        <v>0.01727213024375885</v>
+        <v>0.02327523775607825</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1556,22 +1556,22 @@
         <v>54.20365200000001</v>
       </c>
       <c r="O18">
-        <v>0.1654554101491777</v>
+        <v>0.2170932623988173</v>
       </c>
       <c r="P18">
-        <v>0.1920629712066653</v>
+        <v>0.2351865659654651</v>
       </c>
       <c r="Q18">
-        <v>132.328107376902</v>
+        <v>270.967109820396</v>
       </c>
       <c r="R18">
-        <v>793.9686442614121</v>
+        <v>1625.802658922376</v>
       </c>
       <c r="S18">
-        <v>0.004249948260504371</v>
+        <v>0.007492155100725336</v>
       </c>
       <c r="T18">
-        <v>0.003317336653684828</v>
+        <v>0.005474023239881783</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1594,16 +1594,16 @@
         <v>1</v>
       </c>
       <c r="G19">
-        <v>7.323940500000001</v>
+        <v>14.997169</v>
       </c>
       <c r="H19">
-        <v>14.647881</v>
+        <v>29.994338</v>
       </c>
       <c r="I19">
-        <v>0.02568636623409617</v>
+        <v>0.03451122811430998</v>
       </c>
       <c r="J19">
-        <v>0.01727213024375885</v>
+        <v>0.02327523775607825</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1612,28 +1612,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>21.713181</v>
+        <v>17.58286933333333</v>
       </c>
       <c r="N19">
-        <v>65.139543</v>
+        <v>52.748608</v>
       </c>
       <c r="O19">
-        <v>0.198836967737801</v>
+        <v>0.2112656061941426</v>
       </c>
       <c r="P19">
-        <v>0.2308127535691568</v>
+        <v>0.22887321273073</v>
       </c>
       <c r="Q19">
-        <v>159.0260457097305</v>
+        <v>263.6932628969173</v>
       </c>
       <c r="R19">
-        <v>954.1562742583832</v>
+        <v>1582.159577381504</v>
       </c>
       <c r="S19">
-        <v>0.005107399174190322</v>
+        <v>0.007291035528074034</v>
       </c>
       <c r="T19">
-        <v>0.003986627941567091</v>
+        <v>0.005327078442305217</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1656,16 +1656,16 @@
         <v>1</v>
       </c>
       <c r="G20">
-        <v>7.323940500000001</v>
+        <v>14.997169</v>
       </c>
       <c r="H20">
-        <v>14.647881</v>
+        <v>29.994338</v>
       </c>
       <c r="I20">
-        <v>0.02568636623409617</v>
+        <v>0.03451122811430998</v>
       </c>
       <c r="J20">
-        <v>0.01727213024375885</v>
+        <v>0.02327523775607825</v>
       </c>
       <c r="K20">
         <v>2</v>
@@ -1674,28 +1674,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>45.38465100000001</v>
+        <v>19.2082395</v>
       </c>
       <c r="N20">
-        <v>90.76930200000001</v>
+        <v>38.416479</v>
       </c>
       <c r="O20">
-        <v>0.4156068328578093</v>
+        <v>0.2307951156866419</v>
       </c>
       <c r="P20">
-        <v>0.3216281780510861</v>
+        <v>0.1666869194070983</v>
       </c>
       <c r="Q20">
-        <v>332.3944835372656</v>
+        <v>288.0692139739755</v>
       </c>
       <c r="R20">
-        <v>1329.577934149062</v>
+        <v>1152.276855895902</v>
       </c>
       <c r="S20">
-        <v>0.01067542931817848</v>
+        <v>0.007965022885130259</v>
       </c>
       <c r="T20">
-        <v>0.005555203781361219</v>
+        <v>0.003879677680028468</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1718,16 +1718,16 @@
         <v>1</v>
       </c>
       <c r="G21">
-        <v>7.323940500000001</v>
+        <v>14.997169</v>
       </c>
       <c r="H21">
-        <v>14.647881</v>
+        <v>29.994338</v>
       </c>
       <c r="I21">
-        <v>0.02568636623409617</v>
+        <v>0.03451122811430998</v>
       </c>
       <c r="J21">
-        <v>0.01727213024375885</v>
+        <v>0.02327523775607825</v>
       </c>
       <c r="K21">
         <v>3</v>
@@ -1736,28 +1736,28 @@
         <v>1</v>
       </c>
       <c r="M21">
-        <v>21.91711333333333</v>
+        <v>26.988955</v>
       </c>
       <c r="N21">
-        <v>65.75134</v>
+        <v>80.966865</v>
       </c>
       <c r="O21">
-        <v>0.2007044641117176</v>
+        <v>0.3242837008298742</v>
       </c>
       <c r="P21">
-        <v>0.2329805696712033</v>
+        <v>0.3513106263825066</v>
       </c>
       <c r="Q21">
-        <v>160.51963398509</v>
+        <v>404.757919268395</v>
       </c>
       <c r="R21">
-        <v>963.1178039105401</v>
+        <v>2428.54751561037</v>
       </c>
       <c r="S21">
-        <v>0.00515536836999159</v>
+        <v>0.01119142877309244</v>
       </c>
       <c r="T21">
-        <v>0.004024070743626156</v>
+        <v>0.008176838355289618</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1780,16 +1780,16 @@
         <v>1</v>
       </c>
       <c r="G22">
-        <v>39.03202233333334</v>
+        <v>118.2056323333333</v>
       </c>
       <c r="H22">
-        <v>117.096067</v>
+        <v>354.616897</v>
       </c>
       <c r="I22">
-        <v>0.1368922672858171</v>
+        <v>0.2720127740010079</v>
       </c>
       <c r="J22">
-        <v>0.1380744778207791</v>
+        <v>0.2751783549947898</v>
       </c>
       <c r="K22">
         <v>3</v>
@@ -1798,28 +1798,28 @@
         <v>1</v>
       </c>
       <c r="M22">
-        <v>2.118096666666667</v>
+        <v>1.378421333333333</v>
       </c>
       <c r="N22">
-        <v>6.35429</v>
+        <v>4.135264</v>
       </c>
       <c r="O22">
-        <v>0.01939632514349435</v>
+        <v>0.01656231489052403</v>
       </c>
       <c r="P22">
-        <v>0.02251552750188864</v>
+        <v>0.01794267551419991</v>
       </c>
       <c r="Q22">
-        <v>82.67359639749223</v>
+        <v>162.9371653284231</v>
       </c>
       <c r="R22">
-        <v>744.06236757743</v>
+        <v>1466.434487955808</v>
       </c>
       <c r="S22">
-        <v>0.002655206925905844</v>
+        <v>0.004505161217249641</v>
       </c>
       <c r="T22">
-        <v>0.003108819702682666</v>
+        <v>0.004937435932202826</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1842,16 +1842,16 @@
         <v>1</v>
       </c>
       <c r="G23">
-        <v>39.03202233333334</v>
+        <v>118.2056323333333</v>
       </c>
       <c r="H23">
-        <v>117.096067</v>
+        <v>354.616897</v>
       </c>
       <c r="I23">
-        <v>0.1368922672858171</v>
+        <v>0.2720127740010079</v>
       </c>
       <c r="J23">
-        <v>0.1380744778207791</v>
+        <v>0.2751783549947898</v>
       </c>
       <c r="K23">
         <v>3</v>
@@ -1866,22 +1866,22 @@
         <v>54.20365200000001</v>
       </c>
       <c r="O23">
-        <v>0.1654554101491777</v>
+        <v>0.2170932623988173</v>
       </c>
       <c r="P23">
-        <v>0.1920629712066653</v>
+        <v>0.2351865659654651</v>
       </c>
       <c r="Q23">
-        <v>705.2260518040762</v>
+        <v>2135.725653145316</v>
       </c>
       <c r="R23">
-        <v>6347.034466236685</v>
+        <v>19221.53087830785</v>
       </c>
       <c r="S23">
-        <v>0.02264956623002573</v>
+        <v>0.05905214052203098</v>
       </c>
       <c r="T23">
-        <v>0.02651899445806765</v>
+        <v>0.06471825233925031</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1904,16 +1904,16 @@
         <v>1</v>
       </c>
       <c r="G24">
-        <v>39.03202233333334</v>
+        <v>118.2056323333333</v>
       </c>
       <c r="H24">
-        <v>117.096067</v>
+        <v>354.616897</v>
       </c>
       <c r="I24">
-        <v>0.1368922672858171</v>
+        <v>0.2720127740010079</v>
       </c>
       <c r="J24">
-        <v>0.1380744778207791</v>
+        <v>0.2751783549947898</v>
       </c>
       <c r="K24">
         <v>3</v>
@@ -1922,28 +1922,28 @@
         <v>1</v>
       </c>
       <c r="M24">
-        <v>21.713181</v>
+        <v>17.58286933333333</v>
       </c>
       <c r="N24">
-        <v>65.139543</v>
+        <v>52.748608</v>
       </c>
       <c r="O24">
-        <v>0.198836967737801</v>
+        <v>0.2112656061941426</v>
       </c>
       <c r="P24">
-        <v>0.2308127535691568</v>
+        <v>0.22887321273073</v>
       </c>
       <c r="Q24">
-        <v>847.5093657197092</v>
+        <v>2078.394187781042</v>
       </c>
       <c r="R24">
-        <v>7627.584291477382</v>
+        <v>18705.54769002938</v>
       </c>
       <c r="S24">
-        <v>0.02721924333386445</v>
+        <v>0.05746694359187324</v>
       </c>
       <c r="T24">
-        <v>0.0318693504234375</v>
+        <v>0.06298095418161487</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1966,16 +1966,16 @@
         <v>1</v>
       </c>
       <c r="G25">
-        <v>39.03202233333334</v>
+        <v>118.2056323333333</v>
       </c>
       <c r="H25">
-        <v>117.096067</v>
+        <v>354.616897</v>
       </c>
       <c r="I25">
-        <v>0.1368922672858171</v>
+        <v>0.2720127740010079</v>
       </c>
       <c r="J25">
-        <v>0.1380744778207791</v>
+        <v>0.2751783549947898</v>
       </c>
       <c r="K25">
         <v>2</v>
@@ -1984,28 +1984,28 @@
         <v>1</v>
       </c>
       <c r="M25">
-        <v>45.38465100000001</v>
+        <v>19.2082395</v>
       </c>
       <c r="N25">
-        <v>90.76930200000001</v>
+        <v>38.416479</v>
       </c>
       <c r="O25">
-        <v>0.4156068328578093</v>
+        <v>0.2307951156866419</v>
       </c>
       <c r="P25">
-        <v>0.3216281780510861</v>
+        <v>0.1666869194070983</v>
       </c>
       <c r="Q25">
-        <v>1771.454711422539</v>
+        <v>2270.522096107611</v>
       </c>
       <c r="R25">
-        <v>10628.72826853524</v>
+        <v>13623.13257664566</v>
       </c>
       <c r="S25">
-        <v>0.05689336164938315</v>
+        <v>0.06277921964380699</v>
       </c>
       <c r="T25">
-        <v>0.04440864273685229</v>
+        <v>0.04586863228159442</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2028,16 +2028,16 @@
         <v>1</v>
       </c>
       <c r="G26">
-        <v>39.03202233333334</v>
+        <v>118.2056323333333</v>
       </c>
       <c r="H26">
-        <v>117.096067</v>
+        <v>354.616897</v>
       </c>
       <c r="I26">
-        <v>0.1368922672858171</v>
+        <v>0.2720127740010079</v>
       </c>
       <c r="J26">
-        <v>0.1380744778207791</v>
+        <v>0.2751783549947898</v>
       </c>
       <c r="K26">
         <v>3</v>
@@ -2046,28 +2046,28 @@
         <v>1</v>
       </c>
       <c r="M26">
-        <v>21.91711333333333</v>
+        <v>26.988955</v>
       </c>
       <c r="N26">
-        <v>65.75134</v>
+        <v>80.966865</v>
       </c>
       <c r="O26">
-        <v>0.2007044641117176</v>
+        <v>0.3242837008298742</v>
       </c>
       <c r="P26">
-        <v>0.2329805696712033</v>
+        <v>0.3513106263825066</v>
       </c>
       <c r="Q26">
-        <v>855.4692571088646</v>
+        <v>3190.246491790878</v>
       </c>
       <c r="R26">
-        <v>7699.22331397978</v>
+        <v>28712.2184261179</v>
       </c>
       <c r="S26">
-        <v>0.02747488914663793</v>
+        <v>0.08820930902604701</v>
       </c>
       <c r="T26">
-        <v>0.03216867049973905</v>
+        <v>0.09667308026012736</v>
       </c>
     </row>
   </sheetData>
